--- a/biology/Botanique/Alpinia_manii/Alpinia_manii.xlsx
+++ b/biology/Botanique/Alpinia_manii/Alpinia_manii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpinia  manii  est une espèce de plante herbacée vivace du genre Alpinia de la famille des Zingiberaceae, originaire des Îles Andaman-et-Nicobar ainsi que de Birmanie (Myanmar).
-A.  manii est mentionné et décrit en 1892 dans l'ouvrage de Joseph Dalton Hooker "The Flora of British India", volume 6, page 253 [1].
+A.  manii est mentionné et décrit en 1892 dans l'ouvrage de Joseph Dalton Hooker "The Flora of British India", volume 6, page 253 .
 Il s'y réfère à la collection de George King,  directeur en 1871 du "Jardin Botanique de Calcutta" aujourd'hui "Acharya Jagadish Chandra Bose Indian Botanic Garden".
 A.  manii est assigné à John Gilbert Baker, conservateur des Jardins botaniques royaux de Kew de 1890 à 1899.
 </t>
@@ -515,6 +527,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -541,6 +555,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +583,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,7 +610,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Alpinia phoenicea Kamphoevener ex Kurz, (1876)</t>
         </is>
